--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-34490.07548075882</v>
+        <v>-34490.07548075881</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9817.757322612817</v>
+        <v>9817.757322612813</v>
       </c>
       <c r="C2" t="n">
         <v>9817.757322612817</v>
@@ -26323,25 +26325,25 @@
         <v>9817.757322612817</v>
       </c>
       <c r="F2" t="n">
+        <v>9817.757322612817</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9817.757322612817</v>
+      </c>
+      <c r="H2" t="n">
+        <v>9817.757322612819</v>
+      </c>
+      <c r="I2" t="n">
         <v>9817.757322612815</v>
       </c>
-      <c r="G2" t="n">
-        <v>9817.757322612815</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>9817.757322612817</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>9817.757322612817</v>
       </c>
-      <c r="J2" t="n">
-        <v>9817.757322612815</v>
-      </c>
-      <c r="K2" t="n">
-        <v>9817.757322612815</v>
-      </c>
       <c r="L2" t="n">
-        <v>9817.757322612815</v>
+        <v>9817.757322612817</v>
       </c>
       <c r="M2" t="n">
         <v>9817.757322612817</v>
@@ -26353,7 +26355,7 @@
         <v>9817.757322612817</v>
       </c>
       <c r="P2" t="n">
-        <v>9817.757322612815</v>
+        <v>9817.757322612817</v>
       </c>
     </row>
     <row r="3">
@@ -26531,25 +26533,25 @@
         <v>6872.430125828972</v>
       </c>
       <c r="F6" t="n">
+        <v>6872.430125828972</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6872.430125828972</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6872.430125828974</v>
+      </c>
+      <c r="I6" t="n">
         <v>6872.430125828971</v>
       </c>
-      <c r="G6" t="n">
-        <v>6872.430125828971</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>6872.430125828972</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>6872.430125828972</v>
       </c>
-      <c r="J6" t="n">
-        <v>6872.430125828971</v>
-      </c>
-      <c r="K6" t="n">
-        <v>6872.430125828971</v>
-      </c>
       <c r="L6" t="n">
-        <v>6872.430125828971</v>
+        <v>6872.430125828972</v>
       </c>
       <c r="M6" t="n">
         <v>6872.430125828972</v>
@@ -26561,7 +26563,7 @@
         <v>6872.430125828972</v>
       </c>
       <c r="P6" t="n">
-        <v>6872.430125828971</v>
+        <v>6872.430125828972</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-34490.07548075881</v>
+        <v>-45851.44382238301</v>
       </c>
     </row>
     <row r="7">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9817.757322612813</v>
+        <v>9817.757322612817</v>
       </c>
       <c r="C2" t="n">
-        <v>9817.757322612817</v>
+        <v>9817.757322612815</v>
       </c>
       <c r="D2" t="n">
-        <v>9817.757322612817</v>
+        <v>9817.757322612819</v>
       </c>
       <c r="E2" t="n">
-        <v>9817.757322612817</v>
+        <v>9817.757322612819</v>
       </c>
       <c r="F2" t="n">
         <v>9817.757322612817</v>
@@ -26331,7 +26331,7 @@
         <v>9817.757322612817</v>
       </c>
       <c r="H2" t="n">
-        <v>9817.757322612819</v>
+        <v>9817.757322612817</v>
       </c>
       <c r="I2" t="n">
         <v>9817.757322612815</v>
@@ -26352,10 +26352,10 @@
         <v>9817.757322612817</v>
       </c>
       <c r="O2" t="n">
-        <v>9817.757322612817</v>
+        <v>9817.757322612815</v>
       </c>
       <c r="P2" t="n">
-        <v>9817.757322612817</v>
+        <v>9817.757322612815</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-26755.16987417103</v>
+        <v>-28113.09897097281</v>
       </c>
       <c r="C6" t="n">
-        <v>-26755.16987417103</v>
+        <v>-28113.09897097281</v>
       </c>
       <c r="D6" t="n">
-        <v>-26755.16987417103</v>
+        <v>-28113.0989709728</v>
       </c>
       <c r="E6" t="n">
-        <v>6872.430125828972</v>
+        <v>5514.501029027195</v>
       </c>
       <c r="F6" t="n">
-        <v>6872.430125828972</v>
+        <v>5514.501029027193</v>
       </c>
       <c r="G6" t="n">
-        <v>6872.430125828972</v>
+        <v>5514.501029027193</v>
       </c>
       <c r="H6" t="n">
-        <v>6872.430125828974</v>
+        <v>5514.501029027193</v>
       </c>
       <c r="I6" t="n">
-        <v>6872.430125828971</v>
+        <v>5514.501029027191</v>
       </c>
       <c r="J6" t="n">
-        <v>6872.430125828972</v>
+        <v>5514.501029027193</v>
       </c>
       <c r="K6" t="n">
-        <v>6872.430125828972</v>
+        <v>5514.501029027193</v>
       </c>
       <c r="L6" t="n">
-        <v>6872.430125828972</v>
+        <v>5514.501029027193</v>
       </c>
       <c r="M6" t="n">
-        <v>6872.430125828972</v>
+        <v>5514.501029027193</v>
       </c>
       <c r="N6" t="n">
-        <v>6872.430125828972</v>
+        <v>5514.501029027193</v>
       </c>
       <c r="O6" t="n">
-        <v>6872.430125828972</v>
+        <v>5514.501029027191</v>
       </c>
       <c r="P6" t="n">
-        <v>6872.430125828972</v>
+        <v>5514.501029027191</v>
       </c>
     </row>
   </sheetData>
